--- a/biology/Médecine/Ligament_transverse_supérieur_de_la_scapula/Ligament_transverse_supérieur_de_la_scapula.xlsx
+++ b/biology/Médecine/Ligament_transverse_supérieur_de_la_scapula/Ligament_transverse_supérieur_de_la_scapula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_transverse_sup%C3%A9rieur_de_la_scapula</t>
+          <t>Ligament_transverse_supérieur_de_la_scapula</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament transverse supérieur de la scapula (ou ligament coracoïdien ou ligament transverse de l’omoplate) est une bandelette fibreuse tendue entre l'extrémité médiale de l'incisure scapulaire et la base du processus coracoïde.
-Le ligament transverse supérieur de la scapula transforme l'incisure scapulaire en foramen dans lequel passe le nerf supra-scapulaire. Au-dessus du ligament passent les vaisseaux supra-scapulaires[1],[2].
+Le ligament transverse supérieur de la scapula transforme l'incisure scapulaire en foramen dans lequel passe le nerf supra-scapulaire. Au-dessus du ligament passent les vaisseaux supra-scapulaires,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_transverse_sup%C3%A9rieur_de_la_scapula</t>
+          <t>Ligament_transverse_supérieur_de_la_scapula</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Variation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament transverse supérieur de la scapula peut être complétement ou partiellement ossifié.
-Le ligament peut également se diviser en formant un espace double dans l'incisure scapulaire[3].
+Le ligament peut également se diviser en formant un espace double dans l'incisure scapulaire.
 </t>
         </is>
       </c>
